--- a/Dokumen TA/Jurnal.xlsx
+++ b/Dokumen TA/Jurnal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -35,17 +35,573 @@
     <t>Judul</t>
   </si>
   <si>
-    <t>Jurnal</t>
-  </si>
-  <si>
     <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>Ronal Watrianthos</t>
+  </si>
+  <si>
+    <t>Analisis Pembelajaran Daring
+di Era Pandemic Covid-19</t>
+  </si>
+  <si>
+    <t>Terbitan</t>
+  </si>
+  <si>
+    <t>Fransiska Vina Sari, Arief Wibowo</t>
+  </si>
+  <si>
+    <t>Eko Budi Santoso, Aryo Nugroho</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Calon Presiden Indonesia 2019 Berdasarkan Komentar Publik di Facebook</t>
+  </si>
+  <si>
+    <t>Ahmad Choirun Najib, Akhmad Irsyad, Ghiffari Assamar Qandi, Nur Aini
+Rakhmawat</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Tentang Opini Film Pada Dokumen Twitter Berbahasa Indonesia Menggunakan Naive Bayes Dengan Perbaikan Kata Tidak Baku</t>
+  </si>
+  <si>
+    <t>Prananda Antinasari, Rizal Setya Perdana, M. Ali Fauzi</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Twitter Menggunakan Text Mining Dengan Algoritma Naïve Bayes Classifier</t>
+  </si>
+  <si>
+    <t>Adhi Viky Sudiantoro, Eri Zuliarso</t>
+  </si>
+  <si>
+    <t>Dinamika Informatika Vol.10, No.2, Oktober 2018, Hal. 69-73, P-ISSN: 2085-3343, e-ISSN : 2714-8769</t>
+  </si>
+  <si>
+    <t>Implementasi Metode K-Means dan Naïve Bayes Classifier untuk Analisis Sentimen Pemilihan Presiden (Pilpres) 2019</t>
+  </si>
+  <si>
+    <t>Imam Kurniawan, Ajib Susanto</t>
+  </si>
+  <si>
+    <t>Jurnal Eksplora Informatika, Vol. 9, No. 1, Hal 1-10, P-ISSN: 2089-1814, e-ISSN: 2460-3694</t>
+  </si>
+  <si>
+    <t>Text Mining Dalam Analisis Sentimen Asuransi Menggunakan Metode Naïve Bayes Classifier</t>
+  </si>
+  <si>
+    <t>Luthfia Oktasari, Yulison Herry Chrisnanto, Rezki Yuniarti</t>
+  </si>
+  <si>
+    <t>Prosiding SNST ke-7 Tahun 2016
+Fakultas Teknik Universitas Wahid Hasyim Semarang, ISBN 978-602-99334-5-1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Green Press, Hal 55-64, 2018, P-ISBN: 978-623-93614-2-6, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISBN: 978-623-93614-3-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jurnal Eksplora Informatika, Vol. 9, No. 1, Hal 60-69, September 2019, P-ISSN: 2089-1814, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISSN: 2460-3694</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jurnal Pengembangan Teknologi Informasi dan Ilmu Komputer, Vol. 1, No. 12, Desember 2017, Hal. 1733-1741, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISSN: 2548-964X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perbandingan Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lexicon-based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan SVM untuk Analisis Sentimen Berbasis Ontologi pada Kampanye Pilpres Indonesia Tahun 2019 di Twitter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fountain of Informatics Journal, Vol. 4, No. 2, November 2019, P-ISSN: 2541-4313, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ISSN: 2548-5113</t>
+    </r>
+  </si>
+  <si>
+    <t>Melakukan analisis sentimen untuk mendapatkan kecenderungan arah sentimen masyarakat pada komentar di media sosial Twitter. Metode yang digunakan diantara lain: K-Means untuk melakukan klastering pada data latih dan Naive Bayes Classifier untuk mengklasifikasi pada data tes. Hasil dari Pembobotan ini berupa sentimen positif dan negatif. Data diambil dari Twitter mengenai pemilu presiden 2019 sebanyak 500 data tweet. Dari hasil pengujian 100 dan 150 data uji diperoleh akurasi rata-rata 93.35% dan error rate sebesar 6.66%.</t>
+  </si>
+  <si>
+    <t>Melakukan analisis sentimen terhadap pasangan calon(paslon) presiden melalui media sosial Twitter. Penelitian ini juga melakukan penerapan metode Naive Bayes untuk klasifikasi  sentimen pengguna twiter dengan dua kelas sentimen (negatif, positif) dan tiga kelas sentimen (negatif, positif, netral). Hasil dari penelitian ini menunjukkan metode Naive Bayes memiliki performa lebih baik dalam mengklasifikasikan 2 kelas sentimen (negatif, positif) dibandingkan pengujian dengan 3 kelas sentimen.</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Calon Presiden Indonesia 2019 dari Media Sosial Twitter Menggunakan Metode Naive Bayes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jurnal SIMETRIS, Vol. 10, No. 2 November 2019, P-ISSN: 2252-4983, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISSN: 2549-3108</t>
+    </r>
+  </si>
+  <si>
+    <t>JEPIN (Jurnal Edukasi dan Penelitian Informatika) Vol. 5, No. 3, Desember 2019, P-ISSN: 2460-0741, e-ISSN:2548-9364</t>
+  </si>
+  <si>
+    <t>Sitti Nurul Jannah Fitriyyah, Novi Safriadi, Enda Esyudha Pratama</t>
+  </si>
+  <si>
+    <t>Implementasi Metode Naïve Bayes untuk Analisis Sentimen Warga Jakarta Terhadap Kehadiran Mass Rapid Transit</t>
+  </si>
+  <si>
+    <t>JURNAL INFORMATIK Edisi ke-15, Nomor 3, Desember 2019, P-ISSN : 0216-4221, e-ISSN : 2655-139X</t>
+  </si>
+  <si>
+    <t>Sarika Afrizal, Helena Nurramdhani Irmanda, Noor Falih, Ika Nurlaili Isnainiyah</t>
+  </si>
+  <si>
+    <t>Fahmi Nurulbaiti, Retno Subekti</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Terhadap Data Tweet Untuk Badan Penyelenggara Jaminan Sosial (BPJS) Menggunakan Program R</t>
+  </si>
+  <si>
+    <t>Jurnal Matematika-S1, Vol. 7, No. 1, Hal. 83-107, 2018</t>
+  </si>
+  <si>
+    <t>Analisa sentimen dan Klasifikasi Komentar Positif Pada Twitter dengan Naïve Bayes Classification</t>
+  </si>
+  <si>
+    <t>Akhmad Pandhu Wijaya, Diki Wardhani</t>
+  </si>
+  <si>
+    <t>BRITech (Jurnal Ilmiah Komputer, Sains dan Teknologi Terapan), Volume 1, No 2 Januari 2020 ISSN: 2686-6021</t>
+  </si>
+  <si>
+    <t>Sentimen Analisis Tweet Berbahasa Indonesia dengan
+Deep Belief Network</t>
+  </si>
+  <si>
+    <t>IJCCS (Indonesian Journal of Computing and Cybernetics Systems), Vol.11, No.2, Juli 2017, Hal. 187-198, ISSN: 1978-1520</t>
+  </si>
+  <si>
+    <t>Ira Zulfa, Edi Winarko</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Calon Gubernur DKI Jakarta 2017 Di Twitter</t>
+  </si>
+  <si>
+    <t>Ghulam Asrofi Buntoro</t>
+  </si>
+  <si>
+    <t>Integer Journal, Vol 2, No 1, Maret 2017, Hal. 32-41</t>
+  </si>
+  <si>
+    <t>Peringkasan Sentimen Esktraktif di Twitter Menggunakan Hybrid TF-IDF dan Cosine Similarity</t>
+  </si>
+  <si>
+    <t>Devid Haryalesmana Wahid, Azhari SN</t>
+  </si>
+  <si>
+    <t>IJCCS (Indonesian Journal of Computing and Cybernetics Systems), Vol.10, No.2, Juli 2016, Hal. 207-218, ISSN: 1978-1520</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Pelanggan Toko Online JD.Id Menggunakan Metode Naïve Bayes Classifier Berbasis Konversi Ikon Emosi</t>
+  </si>
+  <si>
+    <t>Melakukan analisis untuk mengetahui sentimen masyarakat terhadap MRTJakarta melalui media sosial Twitter. Data penelitian sebanyak 1000 tweet diambil berdasarkan kata kunci “MRTJakarta” dalam periode waktu tanggal 5 - 23 Maret 2019, kemudian dibagi menjadi 800 tweet untuk training dan 200 tweet untuk testing). Dalam peneliltian ini Naive Bayes digunakan untuk memprediksi nilai akurasi sentimen berdasarkan tweet testing sebesar 75%.</t>
+  </si>
+  <si>
+    <t>Melakukan penlitian dengan tujuan menganalisis konten negatif yang ada pada sosial media Twitter berbahasa Indonseia. Analisis dilakukan dengan upaya mengklasifikasi tweet yang berisi komentar negatif dan positif menggunakan metode Naïve Bayes Classifier disertain oleh pembobotan TF-IDF. Hasil pengujian pada penelitian didapatkan dengan menggunakan tools RapidMiner yang memperlihatkan bahwa akurasi klasifikasi dengan ditambahkan fitur TF-IDF menghasilkan tingkat akurasi sebesar 55.80%.</t>
+  </si>
+  <si>
+    <t>Melakukan analisis sentimen dengan pendekatan deep learning menggunakan metode klasifikasi Deep Belief Network (DBN). Penelitian ini juga menguji metode performa metode DBN, dengan metode klasifikasi Support Vector Machine (SVM) dan Naive Bayes. Hasil pengujian pada sistem yang dibangun memperlihatkan bahwa metode DBN memberikan hasil pengujian klasifikasi lebih baik dengan akurasi sebesar 93.31%, presisi 93%, recall 93%, f1-score 93%, dan support 2378. Hasil tersebut lebih baik jika dibandingkan dengan metode klasifikasi SVM dengan nilai akurasi 92.18%, presisi 92%, recall 92%, f1-score 92%, support 2378. dan Naive Bayes dengan nilai akurasi sebesar 79.10%, presisi 79%, recall 79%, f1-score 79%, support 2378</t>
+  </si>
+  <si>
+    <t>Melakukan analisis dengan tujuan untuk mengklasifikasi data tweet menjadi dua sentimen yaitu positif dan negatif. Dataset bersumber dati tweet teks berbahasa Indonesia yang terdapat di sosial media Twitter, kemudian digunakan sebagai bahan analisis sentimen untuk mengetahui sentimen masyarkat terhadap pilkada Jawa Barat. Hasil pengujian akurasi terhadap 100 data uji, algoritma Naïve Bayes Classifier memberikan nilai akurasi sebesar 84%.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan analisis sentimen dengan pendekatan berbasis ontologi, guna menyaring data yang akan digunakan. Dalam penelitian ini juga dibadingkan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lexicon-based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dengan metode  Support Vector Machine (SVM) untuk proses klasifikasi teks. Berdasarkan hasil penelitian yang dilakukan akurasi yang diperoleh berdasarkan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lexicon-based </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>adalah 39% dan metode SVM sebesar 83%.</t>
+    </r>
+  </si>
+  <si>
+    <t>Melakukan penelitian dengan tujuan mengkombinasikan metode SentiStrength, Hybrid TF-IDF dan Cosine Similarity untuk mengekstraksi ringkasan sentimen positif dan negatif masyarakat terhadap topik selebriti di Twitter secara otomatis. Metode SentiStrength digunakan untuk mendapatkan skor kekuatan sentimen dan mengklasifikasi tweet ke dalam kelas positif, negatif dan netral. Tweet bersentimen positif dan negatif diringkas dengan cara pemeringkatan tweet menggunakan Hybrid TF-IDF yang dikombinasi dengan skor kekuatan sentimen, kemudian menghilangkan tweet yang mirip menggunakan Cosine Similarity. Hasil pengujian memperlihatkan bahwa kombinasi SentiStrength, Hybrid TF-IDF, dan Cosine Similarity mampu menghasilkan ringkasan sentimen dengan akurasi yang lebih baik dibandingkan menggunakan Hybrid TF-IDF saja, dengan perolehan akurasi rata-rata sebesar 60% dan f-measure sebesar 62%.</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian dengan tujuan untuk mengetahui langkah-langkah dalam melakukan analisis sentimen masyarakat Indonesia dengan menggunakan Program R, mengetahui topik-topik yang sering diperbincangkan masyarakat Indonesia terkait dengan BPJS serta mengetahui tanggapan masyarakat terhadap keberadaan BPJS.Data yang digunakan yaitu sebanyak 1000 tweets dan dibatasi hanya tweet berbahasa Indonesia saja. Teknik analisis data pada penelitian ini dilakukan dengan text mining dan scoring sentiment.Pengambilan data, pengolahan data, serta visualisasi informasi dilakukan dengan bantuan Program R. Hasil analisis sentimen tweets masyarakat pada jejaring sosial Twitter terhadap BPJS cenderung bersentimen negatif.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan analisis terhadap opini pelanggan atau konsumen terkait toko online JD.id. Menggunakan data yang bersumber pada media sosial Twitter dengan metode klasifikasi Naive Bayes dan pembobotan TF-IDF disertai fitur konversi ikon emosi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(emoticon).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  Hasil penelitian menunjukkan bahwa metode Naïve Bayes tanpa penambahan fitur mampu mengklasifikasi sentimen dengan nilai akurasi sebesar 96,44%, sementara jika ditambahkan fitur pembobotan TF-IDF disertai konversi ikon emosi mampu meningkatkan nilai akurasi menjadi 98%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan analisis komentar masyarakat pada media sosial Facebook terhadap popularitas dari seorang calon presiden. Metode klasifikasi yang digunakan adalah Naive Bayes disertai dengan proses asosiasi teks, juga menggunakan fitur kamus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(lexicon)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pada proses pelabelan kelas sentimen. Berdasarkan data yang telah dikumpulkan sejak tanggal 17 April 2019 sampai 22 Mei 2019, sebanyak 10.000 dataset komentar berhasil dikumpulkan melalui halaman </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fanpage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Joko Widodo dan Prabowo Subianto. Penelitian ini menghasilkan persentase setimen (positif dan negatif) tiap pasangan calon presiden dan serta pengujian akurasi untuk metode Naïve Bayes Classifier yaitu sebesar 86,4%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan analisis terkait opini masyarakat terhadap pemilihan gubernur DKI Jakarta tahun 2017 pada media sosial Twitter. Proses penentuan sentimen menggunakan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lexicon-Based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan proses klasifikasinya menggunakan metode Naïve Bayes Classifier (NBC) dan Support Vector Machine (SVM). Akurasi tertinggi didapat saat menggunakan metode klasifikasi Naïve Bayes Classifier (NBC), dengan nilai rata-rata akurasi mencapai 95%, nilai presisi 95%, nilai recall 95% nilai TP rate 96,8% dan nilai TN rate 84,6%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan analisis  komentar atau tweet mengenai film yang ada pada Twitter, dengan tujuan dapat sebagai evaluasi dalam menonton film dan meningkatkan produksi film. Pada penelitian ini, proses analisis melibatkan tahap perbaikan kata tidak baku dan normalisasi Levenshtein Distance. Sementara metode pengklasifikasian yang digunakan adalah Naive Bayes Classifier. Berdasarkan hasil pengujian yang telah dilakukan didapatkan akurasi tertinggi dengan nilai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>accuracy,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>precision,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>recall,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f-measure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sebesar 98.33%, 96.77%, 100%, dan 98.36%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan analisis sentimen terhadap asuransi berdasarkan data ulasan di Facebook menggunakan metode Naïve Bayes Classifier untuk membangun sistem yang dapat memberi informasi terhadap penilaian sentimen yang mengarah ke sentimen positif dan sentimen negatif. Dari Pengujian yang telah dilakukan pada penelitian dengan pra-proses, pendekatan rule based dan klasifikasi menggunakan metode Naïve Bayes Classifier diperoleh hasil akurasi sebesar 95% dengan data masukan berupa data latih dan data uji yang digunakan bersumber dari </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fanpage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Prudential Indonesia di Facebook.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Melakukan analisis terhadap pembelajaran daring melalui sosial media Twitter, berdasarkan kata kunci pada tanggal 1 Juli - 31 Juli 2020. Menggunakan metode analisis sentimen dengan algoritma Naive Bayes. Hasil analisis menunjukkan sentimen negatif sangat tinggi mencapai 83%; 16% sentimen negatif; 1% sentimen netral dan pada periode Juli 2020. </t>
+  </si>
+  <si>
+    <t>Walaa Medhat, Ahmed Hassan, Hoda Korashy</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis Algorithms and Applications:
+A Survey</t>
+  </si>
+  <si>
+    <t>Ain Shams Engineering Journal, Vol 5, No. 4, Hal. 1093–1113, Desember 2014, https://doi.org/10.1016/j.asej.2014.04.011</t>
+  </si>
+  <si>
+    <t>Melakukan survey terkait analisis sentimen. Meliputi proses melakukan analisis sentimen dan macam-macam teknik klasifikasi sentimen serta cara melakukan sentimen dengan teknik tersebut.</t>
+  </si>
+  <si>
+    <t>Dataset Indonesia untuk Analisis Sentimen</t>
+  </si>
+  <si>
+    <t>Ridi Ferdiana, Fahim Jatmiko, Desi Dwi Purwanti, Artmita Sekar Tri Ayu, Wiliam Fajar, Dicka</t>
+  </si>
+  <si>
+    <t>JNTETI, Vol. 8, No. 4, November 2019, ISSN 2301-4156</t>
+  </si>
+  <si>
+    <t>Menyajikan sebuah dataset teks berbahsa Indonesia untuk digunakan dalam bidang analisis teks. Dataset ini mencakup data utama, yaitu 10.806 baris data berbahasa Indonesia yang diambil dari media sosial Twitter, yang telah dikategorikan ke dalam tiga label, yaitu positif, negatif, dan netral, beserta 454.559 baris data yang masih belum memiliki label.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +610,50 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -90,14 +683,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,170 +1001,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" ht="173.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" ht="126" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" ht="126" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" ht="236.25" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:8" ht="189" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+    </row>
+    <row r="24" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="189" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumen TA/Jurnal.xlsx
+++ b/Dokumen TA/Jurnal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Analisis Sentimen Terhadap Data Tweet Untuk Badan Penyelenggara Jaminan Sosial (BPJS) Menggunakan Program R</t>
   </si>
   <si>
-    <t>Jurnal Matematika-S1, Vol. 7, No. 1, Hal. 83-107, 2018</t>
-  </si>
-  <si>
     <t>Analisa sentimen dan Klasifikasi Komentar Positif Pada Twitter dengan Naïve Bayes Classification</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>Ghulam Asrofi Buntoro</t>
   </si>
   <si>
-    <t>Integer Journal, Vol 2, No 1, Maret 2017, Hal. 32-41</t>
-  </si>
-  <si>
     <t>Peringkasan Sentimen Esktraktif di Twitter Menggunakan Hybrid TF-IDF dan Cosine Similarity</t>
   </si>
   <si>
@@ -367,12 +361,6 @@
     </r>
   </si>
   <si>
-    <t>Melakukan penelitian dengan tujuan mengkombinasikan metode SentiStrength, Hybrid TF-IDF dan Cosine Similarity untuk mengekstraksi ringkasan sentimen positif dan negatif masyarakat terhadap topik selebriti di Twitter secara otomatis. Metode SentiStrength digunakan untuk mendapatkan skor kekuatan sentimen dan mengklasifikasi tweet ke dalam kelas positif, negatif dan netral. Tweet bersentimen positif dan negatif diringkas dengan cara pemeringkatan tweet menggunakan Hybrid TF-IDF yang dikombinasi dengan skor kekuatan sentimen, kemudian menghilangkan tweet yang mirip menggunakan Cosine Similarity. Hasil pengujian memperlihatkan bahwa kombinasi SentiStrength, Hybrid TF-IDF, dan Cosine Similarity mampu menghasilkan ringkasan sentimen dengan akurasi yang lebih baik dibandingkan menggunakan Hybrid TF-IDF saja, dengan perolehan akurasi rata-rata sebesar 60% dan f-measure sebesar 62%.</t>
-  </si>
-  <si>
-    <t>Melakukan penelitian dengan tujuan untuk mengetahui langkah-langkah dalam melakukan analisis sentimen masyarakat Indonesia dengan menggunakan Program R, mengetahui topik-topik yang sering diperbincangkan masyarakat Indonesia terkait dengan BPJS serta mengetahui tanggapan masyarakat terhadap keberadaan BPJS.Data yang digunakan yaitu sebanyak 1000 tweets dan dibatasi hanya tweet berbahasa Indonesia saja. Teknik analisis data pada penelitian ini dilakukan dengan text mining dan scoring sentiment.Pengambilan data, pengolahan data, serta visualisasi informasi dilakukan dengan bantuan Program R. Hasil analisis sentimen tweets masyarakat pada jejaring sosial Twitter terhadap BPJS cenderung bersentimen negatif.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Melakukan analisis terhadap opini pelanggan atau konsumen terkait toko online JD.id. Menggunakan data yang bersumber pada media sosial Twitter dengan metode klasifikasi Naive Bayes dan pembobotan TF-IDF disertai fitur konversi ikon emosi </t>
     </r>
@@ -569,22 +557,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Melakukan analisis terhadap pembelajaran daring melalui sosial media Twitter, berdasarkan kata kunci pada tanggal 1 Juli - 31 Juli 2020. Menggunakan metode analisis sentimen dengan algoritma Naive Bayes. Hasil analisis menunjukkan sentimen negatif sangat tinggi mencapai 83%; 16% sentimen negatif; 1% sentimen netral dan pada periode Juli 2020. </t>
-  </si>
-  <si>
     <t>Walaa Medhat, Ahmed Hassan, Hoda Korashy</t>
   </si>
   <si>
-    <t>Sentiment Analysis Algorithms and Applications:
-A Survey</t>
-  </si>
-  <si>
     <t>Ain Shams Engineering Journal, Vol 5, No. 4, Hal. 1093–1113, Desember 2014, https://doi.org/10.1016/j.asej.2014.04.011</t>
   </si>
   <si>
-    <t>Melakukan survey terkait analisis sentimen. Meliputi proses melakukan analisis sentimen dan macam-macam teknik klasifikasi sentimen serta cara melakukan sentimen dengan teknik tersebut.</t>
-  </si>
-  <si>
     <t>Dataset Indonesia untuk Analisis Sentimen</t>
   </si>
   <si>
@@ -595,13 +573,327 @@
   </si>
   <si>
     <t>Menyajikan sebuah dataset teks berbahsa Indonesia untuk digunakan dalam bidang analisis teks. Dataset ini mencakup data utama, yaitu 10.806 baris data berbahasa Indonesia yang diambil dari media sosial Twitter, yang telah dikategorikan ke dalam tiga label, yaitu positif, negatif, dan netral, beserta 454.559 baris data yang masih belum memiliki label.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melakukan analisis terhadap pembelajaran daring melalui sosial media Twitter, berdasarkan kata kunci pada tanggal 1 Juli - 31 Juli 2020. Menggunakan metode analisis sentimen dengan algoritma Naive Bayes. Hasil analisis menunjukkan sentimen negatif sangat tinggi mencapai 83%; 16% sentimen positif; 1% sentimen netral dan pada periode Juli 2020. </t>
+  </si>
+  <si>
+    <t>Melakukan penelitian dengan tujuan untuk mengetahui langkah-langkah dalam melakukan analisis sentimen masyarakat Indonesia dengan menggunakan Program R, mengetahui topik-topik yang sering diperbincangkan masyarakat Indonesia terkait dengan BPJS serta mengetahui tanggapan masyarakat terhadap keberadaan BPJS.Data yang digunakan yaitu sebanyak 1000 tweet dan dibatasi hanya tweet berbahasa Indonesia saja. Teknik analisis data pada penelitian ini dilakukan dengan text mining dan scoring sentiment.Pengambilan data, pengolahan data, serta visualisasi informasi dilakukan dengan bantuan Program R. Hasil analisis sentimen tweets masyarakat pada jejaring sosial Twitter terhadap BPJS cenderung bersentimen negatif.</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis on Movie Reviews Using Information Gain and K-Nearest Neighbor</t>
+  </si>
+  <si>
+    <t>Novelty Octaviani Faomasi Daeli, Adiwijaya</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J. Data SCI APPL, Vol. 3, No. 1, Hal. 001-007, Januari 2020, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISSN 2614-7408</t>
+    </r>
+  </si>
+  <si>
+    <t>Melakukan pengujian untuk mencari nilai K yang optimal untuk K-Nearest Neighbor (KNN) dengan perhitungan jarak euclidean distance. Dataset yang digunakan adalah dataset review film Cornell Polarity v2.0 dengan total data 1000 dokumen negatif dan 1000 dokumen positif. Dengan melibatkan Information Gain, nilai K optimal yang diperoleh untuk KNN adalah 3 (K=3) dengan memberikan akurasi sebesar 96.8%.</t>
+  </si>
+  <si>
+    <t>Penerapan Analisis Sentimen Pada Pengguna Twitter Menggunakan Metode K-Nearest Neighbor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jurnal Informatika Sunan Kalijaga, Vol. 3, No. 1, Mei 2018, Hal 1-13, P-ISSN: 2527-5836, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISSN: 2528-0074</t>
+    </r>
+  </si>
+  <si>
+    <t>Akhmad Deviyanto, M. Didik R. Wahyudi</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis Algorithms and Applications: A Survey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan survey terkait analisis sentimen. Meliputi proses melakukan analisis sentimen menggunakan pendekatan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>machine learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lexicon based.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Penelitian ini juga membahas macam-macam teknik klasifikasi sentimen dan cara pengaplikasianya secara singkat untuk mengolah data teks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Melakukan penelitian untuk mengimplementasikan algoritma K-Nearest Neighbor (KNN) dalam analisis sentimen pengguna Twitter tentang topik Pilkada DKI 2017. Dataset sebanyak 2000 data tweet berbahasa Indonesia yang dikumpulkan selama bulan Januari 2017. Pengujian dilakukan menggunakan KNN dengan pembobotan kata TF-IDF dan fungsi Cosine Similarity untuk mengklasifikasikan sentimen ke dalam dua kelas: positif atau negatif. Dari hasil pengujian diketahui bahwa nilai akurasi terbesar adalah 67,2% ketika k=5.</t>
+  </si>
+  <si>
+    <t>Melakukan analisis sentimen pada setiap kalimat dari pengguna twitter terhadap persepakbolaan Indonesia apakah memiliki sentimen negatif atau positif menggunakan K-Nearest Neighbor (KNN) dengan pembobotan kata TF-IDF. Data yang digunakan dalam didapatkan dari hasil crawling dari media sosial twitter terkait persepakbolaan di Indonesia yang diambil dari akun twitter resmi PSSI. Dari 2000 data tweet berbahasa indonesia didapatkan hasil akurasi optimal pada nilai k=23 sejumlah 79.99%.</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Pengguna Twitter Terhadap Polemik Persepakbolaan Indonesia Menggunakan Pembobotan TF-IDF dan K-Nearest Neighbor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Journal of Intelligent Systems And Computation, Vol. 1 No. 1, Oktober 2019, P-ISSN: 2621-9220, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ISSN: 2722-1962</t>
+    </r>
+  </si>
+  <si>
+    <t>Jurnal IKRA-ITH Informatika, Vol. 3, No. 2, Juli 2019, ISSN: 2580-4316</t>
+  </si>
+  <si>
+    <t>Perbandingan Metode Naive Bayes, KNN Dan Decision Tree Terhadap Analisis Sentimen Transportasi KRL Commuter Line</t>
+  </si>
+  <si>
+    <t>Nova Tri Romadloni, Imam Santoso, Sularso Budilaksono</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan perbandingan metode Naive Bayes, K-Nearest Neighbor (KNN) dan Decision Tree untuk melakukan analisis sentimen pada data media sosial Twitter. Tahapan yang dilakukan terhadap dataset tweet (Twitter) sebelum melakukan perbandingan diantaranya: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Convert Emoticon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cleansing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Case Folding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tokenizing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Stemming.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pengujian dilakukan terhadap 127 data yang telah diberikan label positif atau negatif, menghasilkan akurasi 80% menggunakan algoritma Naive Bayes; 80% menggunakan algorima KNN; 100% menggunakan Decision Tree.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jeremy Andre Septian, Tresna Maulana Fahrudin, Aryo Nugroho</t>
+  </si>
+  <si>
+    <t>Jurnal Matematika-S1, Vol. 7, No. 1, Hal. 83-107, 2018, https://eprints.uny.ac.id/56367</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer Journal, Vol 2, No 1, Maret 2017, Hal. 32-41, P-ISSN: 2477-5274, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISSN: 2579-566X</t>
+    </r>
+  </si>
+  <si>
+    <t>Opinion Observer: Analyzing and Comparing Opinions on the Web</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian untuk menganalisa pendapat konsumen terhadap suatu produk. Mengelompokkan data pendapat berdasarkan ulasan komsumen kedalam bentuk ulasan positif atau negatif, kemudian dijadikan sebuah pengetahuan untuk dibandingkan dengan ulasan lainya. Penelitian ini juga membuahkan daftar kata positif dan negatif yang dapat digunakan kembali untuk proses klasifikasi pendapat.</t>
+  </si>
+  <si>
+    <t>Bing Liu, Minqing Hu, Junsheng Cheng</t>
+  </si>
+  <si>
+    <t>Proceedings of the 14th International World Wide Web Conference (WWW-2005), May 10-14, Chiba, Japan</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Publik pada Program Kesehatan Masyarakat menggunakan Twitter Opinion Mining</t>
+  </si>
+  <si>
+    <t>Agus Sasmito Aribowo</t>
+  </si>
+  <si>
+    <t>Seminar Nasional Informatika Medis, Hal. 17-23, 2018, ISSN: 9-772301-936005</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian untuk mengembangkan model untuk mengetahui sentimen publik terhadap enam macam program kebijakan pemerintah yaitu imunisasi, asuransi kesehatan, stunting, gizi buruk, pelayanan kesehatan, dan jaminan  kesehatan masyarakat. Metodenya adalah dengan melakukan ekstraksi pengetahuan dari opini di media sosial menggunakan analisis sentimen berbasis leksikon. Dataset yang diperoleh dalam kurun waktu 3 - 9 Agustus 2018 sebanyak total 3311 data. Hasil penelitian berupa sentimen yang dituangkan ke dalam bentu grafik.</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian dengan tujuan mengkombinasikan metode SentiStrength, Hybrid TF-IDF dan Cosine Similarity untuk mengekstraksi ringkasan sentimen positif dan negatif masyarakat terhadap topik selebriti di Twitter secara otomatis. Metode SentiStrength digunakan untuk mendapatkan skor kekuatan sentimen dan mengklasifikasi tweet ke dalam kelas positif, negatif dan netral. Hasil pengujian memperlihatkan bahwa kombinasi SentiStrength, Hybrid TF-IDF, dan Cosine Similarity mampu menghasilkan ringkasan sentimen dengan akurasi yang lebih baik dibandingkan menggunakan Hybrid TF-IDF saja, dengan perolehan akurasi rata-rata sebesar 60% dan f-measure sebesar 62%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +921,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -651,7 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -712,13 +1010,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1001,24 +1305,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H26"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="113.42578125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1339,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1049,293 +1354,391 @@
         <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>68</v>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>60</v>
+      <c r="C6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>63</v>
+      <c r="C9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="2:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
+      <c r="C12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
+      <c r="C14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>72</v>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumen TA/Jurnal.xlsx
+++ b/Dokumen TA/Jurnal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Melakukan analisis sentimen dengan pendekatan deep learning menggunakan metode klasifikasi Deep Belief Network (DBN). Penelitian ini juga menguji metode performa metode DBN, dengan metode klasifikasi Support Vector Machine (SVM) dan Naive Bayes. Hasil pengujian pada sistem yang dibangun memperlihatkan bahwa metode DBN memberikan hasil pengujian klasifikasi lebih baik dengan akurasi sebesar 93.31%, presisi 93%, recall 93%, f1-score 93%, dan support 2378. Hasil tersebut lebih baik jika dibandingkan dengan metode klasifikasi SVM dengan nilai akurasi 92.18%, presisi 92%, recall 92%, f1-score 92%, support 2378. dan Naive Bayes dengan nilai akurasi sebesar 79.10%, presisi 79%, recall 79%, f1-score 79%, support 2378</t>
   </si>
   <si>
-    <t>Melakukan analisis dengan tujuan untuk mengklasifikasi data tweet menjadi dua sentimen yaitu positif dan negatif. Dataset bersumber dati tweet teks berbahasa Indonesia yang terdapat di sosial media Twitter, kemudian digunakan sebagai bahan analisis sentimen untuk mengetahui sentimen masyarkat terhadap pilkada Jawa Barat. Hasil pengujian akurasi terhadap 100 data uji, algoritma Naïve Bayes Classifier memberikan nilai akurasi sebesar 84%.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Melakukan analisis sentimen dengan pendekatan berbasis ontologi, guna menyaring data yang akan digunakan. Dalam penelitian ini juga dibadingkan metode </t>
     </r>
@@ -386,6 +383,379 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Melakukan analisis terkait opini masyarakat terhadap pemilihan gubernur DKI Jakarta tahun 2017 pada media sosial Twitter. Proses penentuan sentimen menggunakan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lexicon-Based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan proses klasifikasinya menggunakan metode Naïve Bayes Classifier (NBC) dan Support Vector Machine (SVM). Akurasi tertinggi didapat saat menggunakan metode klasifikasi Naïve Bayes Classifier (NBC), dengan nilai rata-rata akurasi mencapai 95%, nilai presisi 95%, nilai recall 95% nilai TP rate 96,8% dan nilai TN rate 84,6%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan analisis  komentar atau tweet mengenai film yang ada pada Twitter, dengan tujuan dapat sebagai evaluasi dalam menonton film dan meningkatkan produksi film. Pada penelitian ini, proses analisis melibatkan tahap perbaikan kata tidak baku dan normalisasi Levenshtein Distance. Sementara metode pengklasifikasian yang digunakan adalah Naive Bayes Classifier. Berdasarkan hasil pengujian yang telah dilakukan didapatkan akurasi tertinggi dengan nilai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>accuracy,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>precision,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>recall,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>f-measure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sebesar 98.33%, 96.77%, 100%, dan 98.36%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan analisis sentimen terhadap asuransi berdasarkan data ulasan di Facebook menggunakan metode Naïve Bayes Classifier untuk membangun sistem yang dapat memberi informasi terhadap penilaian sentimen yang mengarah ke sentimen positif dan sentimen negatif. Dari Pengujian yang telah dilakukan pada penelitian dengan pra-proses, pendekatan rule based dan klasifikasi menggunakan metode Naïve Bayes Classifier diperoleh hasil akurasi sebesar 95% dengan data masukan berupa data latih dan data uji yang digunakan bersumber dari </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fanpage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Prudential Indonesia di Facebook.</t>
+    </r>
+  </si>
+  <si>
+    <t>Walaa Medhat, Ahmed Hassan, Hoda Korashy</t>
+  </si>
+  <si>
+    <t>Ain Shams Engineering Journal, Vol 5, No. 4, Hal. 1093–1113, Desember 2014, https://doi.org/10.1016/j.asej.2014.04.011</t>
+  </si>
+  <si>
+    <t>Dataset Indonesia untuk Analisis Sentimen</t>
+  </si>
+  <si>
+    <t>Ridi Ferdiana, Fahim Jatmiko, Desi Dwi Purwanti, Artmita Sekar Tri Ayu, Wiliam Fajar, Dicka</t>
+  </si>
+  <si>
+    <t>JNTETI, Vol. 8, No. 4, November 2019, ISSN 2301-4156</t>
+  </si>
+  <si>
+    <t>Menyajikan sebuah dataset teks berbahsa Indonesia untuk digunakan dalam bidang analisis teks. Dataset ini mencakup data utama, yaitu 10.806 baris data berbahasa Indonesia yang diambil dari media sosial Twitter, yang telah dikategorikan ke dalam tiga label, yaitu positif, negatif, dan netral, beserta 454.559 baris data yang masih belum memiliki label.</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian dengan tujuan untuk mengetahui langkah-langkah dalam melakukan analisis sentimen masyarakat Indonesia dengan menggunakan Program R, mengetahui topik-topik yang sering diperbincangkan masyarakat Indonesia terkait dengan BPJS serta mengetahui tanggapan masyarakat terhadap keberadaan BPJS.Data yang digunakan yaitu sebanyak 1000 tweet dan dibatasi hanya tweet berbahasa Indonesia saja. Teknik analisis data pada penelitian ini dilakukan dengan text mining dan scoring sentiment.Pengambilan data, pengolahan data, serta visualisasi informasi dilakukan dengan bantuan Program R. Hasil analisis sentimen tweets masyarakat pada jejaring sosial Twitter terhadap BPJS cenderung bersentimen negatif.</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis on Movie Reviews Using Information Gain and K-Nearest Neighbor</t>
+  </si>
+  <si>
+    <t>Novelty Octaviani Faomasi Daeli, Adiwijaya</t>
+  </si>
+  <si>
+    <t>Melakukan pengujian untuk mencari nilai K yang optimal untuk K-Nearest Neighbor (KNN) dengan perhitungan jarak euclidean distance. Dataset yang digunakan adalah dataset review film Cornell Polarity v2.0 dengan total data 1000 dokumen negatif dan 1000 dokumen positif. Dengan melibatkan Information Gain, nilai K optimal yang diperoleh untuk KNN adalah 3 (K=3) dengan memberikan akurasi sebesar 96.8%.</t>
+  </si>
+  <si>
+    <t>Penerapan Analisis Sentimen Pada Pengguna Twitter Menggunakan Metode K-Nearest Neighbor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jurnal Informatika Sunan Kalijaga, Vol. 3, No. 1, Mei 2018, Hal 1-13, P-ISSN: 2527-5836, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISSN: 2528-0074</t>
+    </r>
+  </si>
+  <si>
+    <t>Akhmad Deviyanto, M. Didik R. Wahyudi</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis Algorithms and Applications: A Survey</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian untuk mengimplementasikan algoritma K-Nearest Neighbor (KNN) dalam analisis sentimen pengguna Twitter tentang topik Pilkada DKI 2017. Dataset sebanyak 2000 data tweet berbahasa Indonesia yang dikumpulkan selama bulan Januari 2017. Pengujian dilakukan menggunakan KNN dengan pembobotan kata TF-IDF dan fungsi Cosine Similarity untuk mengklasifikasikan sentimen ke dalam dua kelas: positif atau negatif. Dari hasil pengujian diketahui bahwa nilai akurasi terbesar adalah 67,2% ketika k=5.</t>
+  </si>
+  <si>
+    <t>Melakukan analisis sentimen pada setiap kalimat dari pengguna twitter terhadap persepakbolaan Indonesia apakah memiliki sentimen negatif atau positif menggunakan K-Nearest Neighbor (KNN) dengan pembobotan kata TF-IDF. Data yang digunakan dalam didapatkan dari hasil crawling dari media sosial twitter terkait persepakbolaan di Indonesia yang diambil dari akun twitter resmi PSSI. Dari 2000 data tweet berbahasa indonesia didapatkan hasil akurasi optimal pada nilai k=23 sejumlah 79.99%.</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Pengguna Twitter Terhadap Polemik Persepakbolaan Indonesia Menggunakan Pembobotan TF-IDF dan K-Nearest Neighbor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Journal of Intelligent Systems And Computation, Vol. 1 No. 1, Oktober 2019, P-ISSN: 2621-9220, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ISSN: 2722-1962</t>
+    </r>
+  </si>
+  <si>
+    <t>Jurnal IKRA-ITH Informatika, Vol. 3, No. 2, Juli 2019, ISSN: 2580-4316</t>
+  </si>
+  <si>
+    <t>Perbandingan Metode Naive Bayes, KNN Dan Decision Tree Terhadap Analisis Sentimen Transportasi KRL Commuter Line</t>
+  </si>
+  <si>
+    <t>Nova Tri Romadloni, Imam Santoso, Sularso Budilaksono</t>
+  </si>
+  <si>
+    <t>Jeremy Andre Septian, Tresna Maulana Fahrudin, Aryo Nugroho</t>
+  </si>
+  <si>
+    <t>Jurnal Matematika-S1, Vol. 7, No. 1, Hal. 83-107, 2018, https://eprints.uny.ac.id/56367</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer Journal, Vol 2, No 1, Maret 2017, Hal. 32-41, P-ISSN: 2477-5274, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-ISSN: 2579-566X</t>
+    </r>
+  </si>
+  <si>
+    <t>Opinion Observer: Analyzing and Comparing Opinions on the Web</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian untuk menganalisa pendapat konsumen terhadap suatu produk. Mengelompokkan data pendapat berdasarkan ulasan komsumen kedalam bentuk ulasan positif atau negatif, kemudian dijadikan sebuah pengetahuan untuk dibandingkan dengan ulasan lainya. Penelitian ini juga membuahkan daftar kata positif dan negatif yang dapat digunakan kembali untuk proses klasifikasi pendapat.</t>
+  </si>
+  <si>
+    <t>Bing Liu, Minqing Hu, Junsheng Cheng</t>
+  </si>
+  <si>
+    <t>Proceedings of the 14th International World Wide Web Conference (WWW-2005), May 10-14, Chiba, Japan</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Publik pada Program Kesehatan Masyarakat menggunakan Twitter Opinion Mining</t>
+  </si>
+  <si>
+    <t>Agus Sasmito Aribowo</t>
+  </si>
+  <si>
+    <t>Seminar Nasional Informatika Medis, Hal. 17-23, 2018, ISSN: 9-772301-936005</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian untuk mengembangkan model untuk mengetahui sentimen publik terhadap enam macam program kebijakan pemerintah yaitu imunisasi, asuransi kesehatan, stunting, gizi buruk, pelayanan kesehatan, dan jaminan  kesehatan masyarakat. Metodenya adalah dengan melakukan ekstraksi pengetahuan dari opini di media sosial menggunakan analisis sentimen berbasis leksikon. Dataset yang diperoleh dalam kurun waktu 3 - 9 Agustus 2018 sebanyak total 3311 data. Hasil penelitian berupa sentimen yang dituangkan ke dalam bentu grafik.</t>
+  </si>
+  <si>
+    <t>Melakukan penelitian dengan tujuan mengkombinasikan metode SentiStrength, Hybrid TF-IDF dan Cosine Similarity untuk mengekstraksi ringkasan sentimen positif dan negatif masyarakat terhadap topik selebriti di Twitter secara otomatis. Metode SentiStrength digunakan untuk mendapatkan skor kekuatan sentimen dan mengklasifikasi tweet ke dalam kelas positif, negatif dan netral. Hasil pengujian memperlihatkan bahwa kombinasi SentiStrength, Hybrid TF-IDF, dan Cosine Similarity mampu menghasilkan ringkasan sentimen dengan akurasi yang lebih baik dibandingkan menggunakan Hybrid TF-IDF saja, dengan perolehan akurasi rata-rata sebesar 60% dan f-measure sebesar 62%.</t>
+  </si>
+  <si>
+    <t>J. Data SCI APPL, Vol. 3, No. 1, Hal. 001-007, Januari 2020, e-ISSN 2614-7408</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan penelitian terkait analisis sentimen. Meliputi proses melakukan analisis sentimen menggunakan pendekatan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>machine learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lexicon based.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Penelitian ini juga membahas macam-macam teknik klasifikasi sentimen dan cara pengaplikasianya secara singkat untuk mengolah data teks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pre-Processing Text Mining Pada Data Twitter</t>
+  </si>
+  <si>
+    <t>Siti Mujilahwat</t>
+  </si>
+  <si>
+    <t>Seminar Nasional Teknologi Informasi dan Komunikasi 2016 (SENTIKA 2016), ISSN: 2089-9815</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Melakukan penelitian mengenai teknik penanganan data </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">tweet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Twitter) dengan pre-processing. Hasil penelitian kemudian diuji sebagai bahan pengklasifikasian layanan  perusahaan telekomunikas idan didapatkan hasil akurasi mencapai 93,11% dengan 450 data uji.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Melakukan analisis terhadap pembelajaran daring melalui sosial media Twitter, berdasarkan kata kunci pada tanggal 1 Juli - 31 Juli 2020. Menggunakan metode analisis sentimen dengan Naive Bayes. Hasil analisis menunjukkan sentimen negatif sangat tinggi mencapai 83%; 16% sentimen positif; 1% sentimen netral dan pada periode Juli 2020. </t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Melakukan analisis komentar masyarakat pada media sosial Facebook terhadap popularitas dari seorang calon presiden. Metode klasifikasi yang digunakan adalah Naive Bayes disertai dengan proses asosiasi teks, juga menggunakan fitur kamus </t>
     </r>
     <r>
@@ -405,190 +775,45 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> pada proses pelabelan kelas sentimen. Berdasarkan data yang telah dikumpulkan sejak tanggal 17 April 2019 sampai 22 Mei 2019, sebanyak 10.000 dataset komentar berhasil dikumpulkan melalui halaman </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fanpage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Joko Widodo dan Prabowo Subianto. Penelitian ini menghasilkan persentase setimen (positif dan negatif) tiap pasangan calon presiden dan serta pengujian akurasi untuk metode Naïve Bayes Classifier yaitu sebesar 86,4%.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Melakukan analisis terkait opini masyarakat terhadap pemilihan gubernur DKI Jakarta tahun 2017 pada media sosial Twitter. Proses penentuan sentimen menggunakan metode </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lexicon-Based</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> dan proses klasifikasinya menggunakan metode Naïve Bayes Classifier (NBC) dan Support Vector Machine (SVM). Akurasi tertinggi didapat saat menggunakan metode klasifikasi Naïve Bayes Classifier (NBC), dengan nilai rata-rata akurasi mencapai 95%, nilai presisi 95%, nilai recall 95% nilai TP rate 96,8% dan nilai TN rate 84,6%.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Melakukan analisis  komentar atau tweet mengenai film yang ada pada Twitter, dengan tujuan dapat sebagai evaluasi dalam menonton film dan meningkatkan produksi film. Pada penelitian ini, proses analisis melibatkan tahap perbaikan kata tidak baku dan normalisasi Levenshtein Distance. Sementara metode pengklasifikasian yang digunakan adalah Naive Bayes Classifier. Berdasarkan hasil pengujian yang telah dilakukan didapatkan akurasi tertinggi dengan nilai </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>accuracy,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>precision,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>recall,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> dan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>f-measure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sebesar 98.33%, 96.77%, 100%, dan 98.36%.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Melakukan analisis sentimen terhadap asuransi berdasarkan data ulasan di Facebook menggunakan metode Naïve Bayes Classifier untuk membangun sistem yang dapat memberi informasi terhadap penilaian sentimen yang mengarah ke sentimen positif dan sentimen negatif. Dari Pengujian yang telah dilakukan pada penelitian dengan pra-proses, pendekatan rule based dan klasifikasi menggunakan metode Naïve Bayes Classifier diperoleh hasil akurasi sebesar 95% dengan data masukan berupa data latih dan data uji yang digunakan bersumber dari </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fanpage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Prudential Indonesia di Facebook.</t>
-    </r>
-  </si>
-  <si>
-    <t>Walaa Medhat, Ahmed Hassan, Hoda Korashy</t>
-  </si>
-  <si>
-    <t>Ain Shams Engineering Journal, Vol 5, No. 4, Hal. 1093–1113, Desember 2014, https://doi.org/10.1016/j.asej.2014.04.011</t>
-  </si>
-  <si>
-    <t>Dataset Indonesia untuk Analisis Sentimen</t>
-  </si>
-  <si>
-    <t>Ridi Ferdiana, Fahim Jatmiko, Desi Dwi Purwanti, Artmita Sekar Tri Ayu, Wiliam Fajar, Dicka</t>
-  </si>
-  <si>
-    <t>JNTETI, Vol. 8, No. 4, November 2019, ISSN 2301-4156</t>
-  </si>
-  <si>
-    <t>Menyajikan sebuah dataset teks berbahsa Indonesia untuk digunakan dalam bidang analisis teks. Dataset ini mencakup data utama, yaitu 10.806 baris data berbahasa Indonesia yang diambil dari media sosial Twitter, yang telah dikategorikan ke dalam tiga label, yaitu positif, negatif, dan netral, beserta 454.559 baris data yang masih belum memiliki label.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melakukan analisis terhadap pembelajaran daring melalui sosial media Twitter, berdasarkan kata kunci pada tanggal 1 Juli - 31 Juli 2020. Menggunakan metode analisis sentimen dengan algoritma Naive Bayes. Hasil analisis menunjukkan sentimen negatif sangat tinggi mencapai 83%; 16% sentimen positif; 1% sentimen netral dan pada periode Juli 2020. </t>
-  </si>
-  <si>
-    <t>Melakukan penelitian dengan tujuan untuk mengetahui langkah-langkah dalam melakukan analisis sentimen masyarakat Indonesia dengan menggunakan Program R, mengetahui topik-topik yang sering diperbincangkan masyarakat Indonesia terkait dengan BPJS serta mengetahui tanggapan masyarakat terhadap keberadaan BPJS.Data yang digunakan yaitu sebanyak 1000 tweet dan dibatasi hanya tweet berbahasa Indonesia saja. Teknik analisis data pada penelitian ini dilakukan dengan text mining dan scoring sentiment.Pengambilan data, pengolahan data, serta visualisasi informasi dilakukan dengan bantuan Program R. Hasil analisis sentimen tweets masyarakat pada jejaring sosial Twitter terhadap BPJS cenderung bersentimen negatif.</t>
-  </si>
-  <si>
-    <t>Sentiment Analysis on Movie Reviews Using Information Gain and K-Nearest Neighbor</t>
-  </si>
-  <si>
-    <t>Novelty Octaviani Faomasi Daeli, Adiwijaya</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">J. Data SCI APPL, Vol. 3, No. 1, Hal. 001-007, Januari 2020, </t>
+      <t xml:space="preserve"> pada proses pelabelan kelas sentimen. Penelitian ini menghasilkan persentase setimen (positif dan negatif) tiap pasangan calon presiden dan serta pengujian akurasi untuk metode Naïve Bayes Classifier yaitu sebesar 86,4%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Melakukan perbandingan metode Naive Bayes, K-Nearest Neighbor (KNN) dan Decision Tree untuk melakukan analisis sentimen pada data media sosial Twitter</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pengujian dilakukan terhadap 127 data yang telah diberikan label positif atau negatif, menghasilkan akurasi 80% menggunakan Naive Bayes; 80% menggunakan KNN; 100% menggunakan Decision Tree.</t>
+    </r>
+  </si>
+  <si>
+    <t>Melakukan analisis dengan tujuan untuk mengklasifikasi data tweet menjadi dua sentimen yaitu positif dan negatif. Dataset bersumber dati tweet teks berbahasa Indonesia yang terdapat di sosial media Twitter, kemudian digunakan sebagai bahan analisis sentimen untuk mengetahui sentimen masyarkat terhadap pilkada Jawa Barat. Hasil pengujian akurasi terhadap 100 data uji, Naïve Bayes Classifier memberikan nilai akurasi sebesar 84%.</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Opini Publik Mengenai Covid-19 Pada Twitter Menggunakan Metode Naïve Bayes Dan Knn</t>
+  </si>
+  <si>
+    <t>Muhammad Syarifuddin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inti Nusa Mandiri, Vol. 15, Agustus 2020, P-ISSN: 0216-6933, </t>
     </r>
     <r>
       <rPr>
@@ -607,286 +832,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>-ISSN 2614-7408</t>
-    </r>
-  </si>
-  <si>
-    <t>Melakukan pengujian untuk mencari nilai K yang optimal untuk K-Nearest Neighbor (KNN) dengan perhitungan jarak euclidean distance. Dataset yang digunakan adalah dataset review film Cornell Polarity v2.0 dengan total data 1000 dokumen negatif dan 1000 dokumen positif. Dengan melibatkan Information Gain, nilai K optimal yang diperoleh untuk KNN adalah 3 (K=3) dengan memberikan akurasi sebesar 96.8%.</t>
-  </si>
-  <si>
-    <t>Penerapan Analisis Sentimen Pada Pengguna Twitter Menggunakan Metode K-Nearest Neighbor</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jurnal Informatika Sunan Kalijaga, Vol. 3, No. 1, Mei 2018, Hal 1-13, P-ISSN: 2527-5836, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-ISSN: 2528-0074</t>
-    </r>
-  </si>
-  <si>
-    <t>Akhmad Deviyanto, M. Didik R. Wahyudi</t>
-  </si>
-  <si>
-    <t>Sentiment Analysis Algorithms and Applications: A Survey</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Melakukan survey terkait analisis sentimen. Meliputi proses melakukan analisis sentimen menggunakan pendekatan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>machine learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> dan</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> lexicon based.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Penelitian ini juga membahas macam-macam teknik klasifikasi sentimen dan cara pengaplikasianya secara singkat untuk mengolah data teks.</t>
-    </r>
-  </si>
-  <si>
-    <t>Melakukan penelitian untuk mengimplementasikan algoritma K-Nearest Neighbor (KNN) dalam analisis sentimen pengguna Twitter tentang topik Pilkada DKI 2017. Dataset sebanyak 2000 data tweet berbahasa Indonesia yang dikumpulkan selama bulan Januari 2017. Pengujian dilakukan menggunakan KNN dengan pembobotan kata TF-IDF dan fungsi Cosine Similarity untuk mengklasifikasikan sentimen ke dalam dua kelas: positif atau negatif. Dari hasil pengujian diketahui bahwa nilai akurasi terbesar adalah 67,2% ketika k=5.</t>
-  </si>
-  <si>
-    <t>Melakukan analisis sentimen pada setiap kalimat dari pengguna twitter terhadap persepakbolaan Indonesia apakah memiliki sentimen negatif atau positif menggunakan K-Nearest Neighbor (KNN) dengan pembobotan kata TF-IDF. Data yang digunakan dalam didapatkan dari hasil crawling dari media sosial twitter terkait persepakbolaan di Indonesia yang diambil dari akun twitter resmi PSSI. Dari 2000 data tweet berbahasa indonesia didapatkan hasil akurasi optimal pada nilai k=23 sejumlah 79.99%.</t>
-  </si>
-  <si>
-    <t>Analisis Sentimen Pengguna Twitter Terhadap Polemik Persepakbolaan Indonesia Menggunakan Pembobotan TF-IDF dan K-Nearest Neighbor</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Journal of Intelligent Systems And Computation, Vol. 1 No. 1, Oktober 2019, P-ISSN: 2621-9220, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>e-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ISSN: 2722-1962</t>
-    </r>
-  </si>
-  <si>
-    <t>Jurnal IKRA-ITH Informatika, Vol. 3, No. 2, Juli 2019, ISSN: 2580-4316</t>
-  </si>
-  <si>
-    <t>Perbandingan Metode Naive Bayes, KNN Dan Decision Tree Terhadap Analisis Sentimen Transportasi KRL Commuter Line</t>
-  </si>
-  <si>
-    <t>Nova Tri Romadloni, Imam Santoso, Sularso Budilaksono</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Melakukan perbandingan metode Naive Bayes, K-Nearest Neighbor (KNN) dan Decision Tree untuk melakukan analisis sentimen pada data media sosial Twitter. Tahapan yang dilakukan terhadap dataset tweet (Twitter) sebelum melakukan perbandingan diantaranya: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Convert Emoticon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cleansing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Case Folding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tokenizing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Stemming.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pengujian dilakukan terhadap 127 data yang telah diberikan label positif atau negatif, menghasilkan akurasi 80% menggunakan algoritma Naive Bayes; 80% menggunakan algorima KNN; 100% menggunakan Decision Tree.</t>
-    </r>
-  </si>
-  <si>
-    <t>Jeremy Andre Septian, Tresna Maulana Fahrudin, Aryo Nugroho</t>
-  </si>
-  <si>
-    <t>Jurnal Matematika-S1, Vol. 7, No. 1, Hal. 83-107, 2018, https://eprints.uny.ac.id/56367</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Integer Journal, Vol 2, No 1, Maret 2017, Hal. 32-41, P-ISSN: 2477-5274, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-ISSN: 2579-566X</t>
-    </r>
-  </si>
-  <si>
-    <t>Opinion Observer: Analyzing and Comparing Opinions on the Web</t>
-  </si>
-  <si>
-    <t>Melakukan penelitian untuk menganalisa pendapat konsumen terhadap suatu produk. Mengelompokkan data pendapat berdasarkan ulasan komsumen kedalam bentuk ulasan positif atau negatif, kemudian dijadikan sebuah pengetahuan untuk dibandingkan dengan ulasan lainya. Penelitian ini juga membuahkan daftar kata positif dan negatif yang dapat digunakan kembali untuk proses klasifikasi pendapat.</t>
-  </si>
-  <si>
-    <t>Bing Liu, Minqing Hu, Junsheng Cheng</t>
-  </si>
-  <si>
-    <t>Proceedings of the 14th International World Wide Web Conference (WWW-2005), May 10-14, Chiba, Japan</t>
-  </si>
-  <si>
-    <t>Analisis Sentimen Publik pada Program Kesehatan Masyarakat menggunakan Twitter Opinion Mining</t>
-  </si>
-  <si>
-    <t>Agus Sasmito Aribowo</t>
-  </si>
-  <si>
-    <t>Seminar Nasional Informatika Medis, Hal. 17-23, 2018, ISSN: 9-772301-936005</t>
-  </si>
-  <si>
-    <t>Melakukan penelitian untuk mengembangkan model untuk mengetahui sentimen publik terhadap enam macam program kebijakan pemerintah yaitu imunisasi, asuransi kesehatan, stunting, gizi buruk, pelayanan kesehatan, dan jaminan  kesehatan masyarakat. Metodenya adalah dengan melakukan ekstraksi pengetahuan dari opini di media sosial menggunakan analisis sentimen berbasis leksikon. Dataset yang diperoleh dalam kurun waktu 3 - 9 Agustus 2018 sebanyak total 3311 data. Hasil penelitian berupa sentimen yang dituangkan ke dalam bentu grafik.</t>
-  </si>
-  <si>
-    <t>Melakukan penelitian dengan tujuan mengkombinasikan metode SentiStrength, Hybrid TF-IDF dan Cosine Similarity untuk mengekstraksi ringkasan sentimen positif dan negatif masyarakat terhadap topik selebriti di Twitter secara otomatis. Metode SentiStrength digunakan untuk mendapatkan skor kekuatan sentimen dan mengklasifikasi tweet ke dalam kelas positif, negatif dan netral. Hasil pengujian memperlihatkan bahwa kombinasi SentiStrength, Hybrid TF-IDF, dan Cosine Similarity mampu menghasilkan ringkasan sentimen dengan akurasi yang lebih baik dibandingkan menggunakan Hybrid TF-IDF saja, dengan perolehan akurasi rata-rata sebesar 60% dan f-measure sebesar 62%.</t>
+      <t>-ISSN: 2685-807X</t>
+    </r>
+  </si>
+  <si>
+    <t>Melakukan analisis pendapat masyarakat yang bersumber dari media sosial Twitter. Menggunakan 1098 tweet dengan kata kunci Covid-19, memperoleh nilai akurasi tertinggi menggunakan metode Naive Bayes sebesar 63.21% sedangkan metode KNN sebesar 58.10%, dan kecenderungan opini masyarakat di Twitter condong ke positif dengan jumlah opini positif sebesar 610 sedangkan negatif 488.</t>
   </si>
 </sst>
 </file>
@@ -928,7 +878,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,18 +888,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1017,12 +955,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1307,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1272,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1354,212 +1286,211 @@
         <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="C4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>71</v>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>84</v>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>55</v>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>57</v>
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>76</v>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
+      <c r="C11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>89</v>
@@ -1567,75 +1498,106 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="22" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="H23" s="11"/>
     </row>
@@ -1650,7 +1612,7 @@
         <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H24" s="12"/>
     </row>
@@ -1695,7 +1657,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
@@ -1737,7 +1699,7 @@
         <v>21</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumen TA/Jurnal.xlsx
+++ b/Dokumen TA/Jurnal.xlsx
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Dokumen TA/Jurnal.xlsx
+++ b/Dokumen TA/Jurnal.xlsx
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
